--- a/src/TestData/TestData.xlsx
+++ b/src/TestData/TestData.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -134,6 +134,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -465,7 +466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
@@ -473,7 +474,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="3" customWidth="true" width="29.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -491,142 +492,145 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="E2" t="s" s="0">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>35</v>
       </c>
     </row>
